--- a/Important-450-DSA.xlsx
+++ b/Important-450-DSA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piyush\Desktop\90DaysOfDSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916E1AE6-15C7-495D-B157-86917B895A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BC2409-3442-46FB-A5BE-8D9A284A4CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1504,7 +1504,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1514,6 +1514,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1531,7 +1537,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1559,6 +1565,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1878,8 +1887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A452" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B409" sqref="B409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6175,8 +6184,8 @@
       <c r="B410" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="C410" s="2" t="s">
-        <v>3</v>
+      <c r="C410" s="13" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="411" spans="1:3" ht="21">
@@ -6186,8 +6195,8 @@
       <c r="B411" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="C411" s="2" t="s">
-        <v>3</v>
+      <c r="C411" s="13" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="412" spans="1:3" ht="21">
